--- a/Number Format/NumberFormatCs/NumberFormat.xlsx
+++ b/Number Format/NumberFormatCs/NumberFormat.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\job-related\code\git-main\ExampleExplorer\GemBox.ExampleExplorer.Web\Examples\Spreadsheet\[Common]\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0A863D-EAB9-4966-AD07-31914525F32B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="16275" windowHeight="10035"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,8 +34,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-1]_);\(#,##0.00\ [$€-1]\)"/>
@@ -41,6 +47,7 @@
     <numFmt numFmtId="172" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="173" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)"/>
     <numFmt numFmtId="174" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="#\ ?/100"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -71,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -90,6 +97,8 @@
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -99,6 +108,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -147,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -180,9 +192,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,6 +244,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,10 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -494,7 +542,17 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="18">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>2</v>
       </c>
     </row>
